--- a/03. Analisis y diseño/04. Base de datos/03. Datos/Carreras/Carreras.xlsx
+++ b/03. Analisis y diseño/04. Base de datos/03. Datos/Carreras/Carreras.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Carreras" sheetId="1" r:id="rId1"/>
+    <sheet name="PARA CARGAR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Ingeniería Química</t>
   </si>
@@ -161,6 +162,9 @@
   </si>
   <si>
     <t>061</t>
+  </si>
+  <si>
+    <t>Para cargar por INSERT se debe acortar el nombre</t>
   </si>
 </sst>
 </file>
@@ -523,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -738,4 +742,434 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="137.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"$carreras[] = new Carrera('"&amp;A1&amp;"','"&amp;B1&amp;"','"&amp;B1&amp;"');"</f>
+        <v>$carreras[] = new Carrera('','','');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;B2&amp;"'),"</f>
+        <v>('69','Ingeniería Química','Ingeniería Química'),</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F26" si="0">"$carreras[] = new Carrera('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;B2&amp;"');"</f>
+        <v>$carreras[] = new Carrera('69','Ingeniería Química','Ingeniería Química');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D26" si="1">"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;B3&amp;"'),"</f>
+        <v>('49','Profesorado en Matemática','Profesorado en Matemática'),</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('49','Profesorado en Matemática','Profesorado en Matemática');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>('23','Ingeniería en Recursos Naturales Renovables','Ingeniería en Recursos Naturales Renovables'),</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('23','Ingeniería en Recursos Naturales Renovables','Ingeniería en Recursos Naturales Renovables');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>('16','Analista de Sistemas','Analista de Sistemas'),</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('16','Analista de Sistemas','Analista de Sistemas');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>('72','Licenciatura en Sistemas','Licenciatura en Sistemas'),</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('72','Licenciatura en Sistemas','Licenciatura en Sistemas');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>913</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>('913','Licenciatura en Administración','Licenciatura en Administración'),</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('913','Licenciatura en Administración','Licenciatura en Administración');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>914</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>('914','Profesorado en Economía y Gestión de Organizaciones','Profesorado en Economía y Gestión de Organizaciones'),</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('914','Profesorado en Economía y Gestión de Organizaciones','Profesorado en Economía y Gestión de Organizaciones');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>912</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>('912','Tecnicatura Universitaria en Gestión de Organizaciones','Tecnicatura Universitaria en Gestión de Organizaciones'),</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('912','Tecnicatura Universitaria en Gestión de Organizaciones','Tecnicatura Universitaria en Gestión de Organizaciones');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>('45','Licenciatura en Psicopedagogía','Licenciatura en Psicopedagogía'),</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('45','Licenciatura en Psicopedagogía','Licenciatura en Psicopedagogía');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>('74','Licenciatura en Trabajo Social','Licenciatura en Trabajo Social'),</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('74','Licenciatura en Trabajo Social','Licenciatura en Trabajo Social');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>('64','Licenciatura en Geografía','Licenciatura en Geografía'),</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('64','Licenciatura en Geografía','Licenciatura en Geografía');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>('4','Profesorado en Geografía','Profesorado en Geografía'),</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('4','Profesorado en Geografía','Profesorado en Geografía');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>('60','Licenciatura en Letras','Licenciatura en Letras'),</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('60','Licenciatura en Letras','Licenciatura en Letras');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>918</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>('918','Licenciatura en Comunicación Social','Licenciatura en Comunicación Social'),</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('918','Licenciatura en Comunicación Social','Licenciatura en Comunicación Social');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>('1','Profesorado en Letras','Profesorado en Letras'),</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('1','Profesorado en Letras','Profesorado en Letras');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>('83','Licenciatura en Geografía - Ciclo de Licenciatura','Licenciatura en Geografía - Ciclo de Licenciatura'),</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('83','Licenciatura en Geografía - Ciclo de Licenciatura','Licenciatura en Geografía - Ciclo de Licenciatura');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>('67','Licenciatura en Geografía - Ciclo de Licenciatura','Licenciatura en Geografía - Ciclo de Licenciatura'),</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('67','Licenciatura en Geografía - Ciclo de Licenciatura','Licenciatura en Geografía - Ciclo de Licenciatura');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>('3','Profesorado en Historia','Profesorado en Historia'),</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('3','Profesorado en Historia','Profesorado en Historia');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>('47','Licenciatura en Enfermería','Licenciatura en Enfermería'),</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('47','Licenciatura en Enfermería','Licenciatura en Enfermería');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>('76','Tecnicatura Universitaria en Acompañamiento Terapéutico','Tecnicatura Universitaria en Acompañamiento Terapéutico'),</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('76','Tecnicatura Universitaria en Acompañamiento Terapéutico','Tecnicatura Universitaria en Acompañamiento Terapéutico');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>('46','Enfermería Universitaria','Enfermería Universitaria'),</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('46','Enfermería Universitaria','Enfermería Universitaria');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>('85','Ciclo Complementario de la Licenciatura en Turismo','Ciclo Complementario de la Licenciatura en Turismo'),</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('85','Ciclo Complementario de la Licenciatura en Turismo','Ciclo Complementario de la Licenciatura en Turismo');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>('62','Tecnicatura Universitaria en Turismo','Tecnicatura Universitaria en Turismo'),</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('62','Tecnicatura Universitaria en Turismo','Tecnicatura Universitaria en Turismo');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>('63','Ciclo Complementario de la Licenciatura en Turismo.','Ciclo Complementario de la Licenciatura en Turismo.'),</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('63','Ciclo Complementario de la Licenciatura en Turismo.','Ciclo Complementario de la Licenciatura en Turismo.');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>('61','Licenciatura en Turismo','Licenciatura en Turismo'),</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>$carreras[] = new Carrera('61','Licenciatura en Turismo','Licenciatura en Turismo');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>